--- a/Complete_Excel_Session_File.xlsx
+++ b/Complete_Excel_Session_File.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Advance-Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Advanced_Excel_for_Data_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" tabRatio="872" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" tabRatio="872" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Basics " sheetId="1" r:id="rId1"/>
@@ -32,8 +32,8 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <customWorkbookViews>
+    <customWorkbookView name="new" guid="{06BAD8CE-1DBC-44C9-B316-806B0B5B5BBC}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="736" activeSheetId="18"/>
     <customWorkbookView name="new_2" guid="{586EE853-6E53-4973-9818-E4AB447301FE}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="736" activeSheetId="18"/>
-    <customWorkbookView name="new" guid="{06BAD8CE-1DBC-44C9-B316-806B0B5B5BBC}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="736" activeSheetId="18"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1578,7 +1578,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -2133,51 +2133,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2185,7 +2140,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2417,11 +2372,9 @@
     <xf numFmtId="0" fontId="25" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2429,23 +2382,16 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2487,7 +2433,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2714,7 +2660,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E02988C9-775D-4423-A08D-0D8474C0BEAA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E02988C9-775D-4423-A08D-0D8474C0BEAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2760,7 +2706,7 @@
             <xdr14:cNvPr id="3" name="Ink 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C9BF021-C7C7-4B1D-92D9-FD5A242B4A3A}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C9BF021-C7C7-4B1D-92D9-FD5A242B4A3A}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -2823,7 +2769,7 @@
         <xdr:cNvPr id="4" name="Shape 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2927,7 +2873,7 @@
             <xdr14:cNvPr id="2" name="Ink 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6DA822AE-8815-CE13-6256-1E7AA56BB343}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DA822AE-8815-CE13-6256-1E7AA56BB343}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -2992,7 +2938,7 @@
             <xdr14:cNvPr id="3" name="Ink 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A41D5B0-B51D-C432-63BC-4D1B12435B36}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A41D5B0-B51D-C432-63BC-4D1B12435B36}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -3052,7 +2998,7 @@
             <xdr14:cNvPr id="5" name="Ink 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3B07F23-6E73-45CD-8D70-DC76C265F963}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3B07F23-6E73-45CD-8D70-DC76C265F963}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -3112,7 +3058,7 @@
             <xdr14:cNvPr id="6" name="Ink 5">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{651B8A66-2C4A-4030-A6C5-AE98DC1233F3}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{651B8A66-2C4A-4030-A6C5-AE98DC1233F3}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -3172,7 +3118,7 @@
             <xdr14:cNvPr id="7" name="Ink 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F2E274E-071E-4F20-B12B-A95D45D5509F}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F2E274E-071E-4F20-B12B-A95D45D5509F}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -3232,7 +3178,7 @@
             <xdr14:cNvPr id="8" name="Ink 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F535FD51-19EE-4BA1-9615-61F09CA61578}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F535FD51-19EE-4BA1-9615-61F09CA61578}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -3292,7 +3238,7 @@
             <xdr14:cNvPr id="9" name="Ink 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B85533E-2CC0-49DB-87E0-4F4E91F64015}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B85533E-2CC0-49DB-87E0-4F4E91F64015}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -3352,7 +3298,7 @@
             <xdr14:cNvPr id="10" name="Ink 9">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{69709535-2FEE-47CF-9FEC-2DD6A6E4EE6D}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69709535-2FEE-47CF-9FEC-2DD6A6E4EE6D}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -3412,7 +3358,7 @@
             <xdr14:cNvPr id="11" name="Ink 10">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B32F0127-1919-4510-AD88-E24E98554BD0}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B32F0127-1919-4510-AD88-E24E98554BD0}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -3472,7 +3418,7 @@
             <xdr14:cNvPr id="12" name="Ink 11">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FCC1386F-9CFE-4F87-BC32-88C21ECE7156}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC1386F-9CFE-4F87-BC32-88C21ECE7156}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -3532,7 +3478,7 @@
             <xdr14:cNvPr id="13" name="Ink 12">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{03CB8BBF-3D3E-4A79-BEC9-166A28DE3E2F}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03CB8BBF-3D3E-4A79-BEC9-166A28DE3E2F}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -3592,7 +3538,7 @@
             <xdr14:cNvPr id="14" name="Ink 13">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D5E85E2E-9575-422B-B9BB-1F1BD108DA4C}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5E85E2E-9575-422B-B9BB-1F1BD108DA4C}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -3652,7 +3598,7 @@
             <xdr14:cNvPr id="15" name="Ink 14">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F5F1794-52DA-4682-B9CD-600B7C97F876}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F5F1794-52DA-4682-B9CD-600B7C97F876}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -3712,7 +3658,7 @@
             <xdr14:cNvPr id="16" name="Ink 15">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{97A3C2DF-5B5F-4CD4-9DA6-A0B6A92F879E}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97A3C2DF-5B5F-4CD4-9DA6-A0B6A92F879E}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -3772,7 +3718,7 @@
             <xdr14:cNvPr id="17" name="Ink 16">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{54B351CF-293C-4693-B19A-0AA0192A350C}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54B351CF-293C-4693-B19A-0AA0192A350C}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -3832,7 +3778,7 @@
             <xdr14:cNvPr id="18" name="Ink 17">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B7A642D-968E-4DCC-91D1-DF63006DB3E2}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B7A642D-968E-4DCC-91D1-DF63006DB3E2}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -3897,7 +3843,7 @@
             <xdr14:cNvPr id="19" name="Ink 18">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0652B3B0-03B7-A099-5956-E3691594032C}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0652B3B0-03B7-A099-5956-E3691594032C}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -3957,7 +3903,7 @@
             <xdr14:cNvPr id="20" name="Ink 19">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE29F2F3-6301-489B-A4E9-B6ACE47209D0}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE29F2F3-6301-489B-A4E9-B6ACE47209D0}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -4017,7 +3963,7 @@
             <xdr14:cNvPr id="21" name="Ink 20">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79769302-6623-450B-85FB-25FC0523A358}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79769302-6623-450B-85FB-25FC0523A358}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -4077,7 +4023,7 @@
             <xdr14:cNvPr id="22" name="Ink 21">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C53BB4A2-29EB-41D4-B678-D60ABD3FAE79}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C53BB4A2-29EB-41D4-B678-D60ABD3FAE79}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -4137,7 +4083,7 @@
             <xdr14:cNvPr id="23" name="Ink 22">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4CB7ACA1-C0D9-4276-A41B-23CA007342BC}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CB7ACA1-C0D9-4276-A41B-23CA007342BC}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -4197,7 +4143,7 @@
             <xdr14:cNvPr id="24" name="Ink 23">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6AD9BEA7-B2FD-40F8-8D08-9801083E0A45}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AD9BEA7-B2FD-40F8-8D08-9801083E0A45}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -4257,7 +4203,7 @@
             <xdr14:cNvPr id="25" name="Ink 24">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E1006A4-B2CF-435E-B5A9-7D56ACC88C96}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E1006A4-B2CF-435E-B5A9-7D56ACC88C96}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -4317,7 +4263,7 @@
             <xdr14:cNvPr id="26" name="Ink 25">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F5BFEBEA-75B6-4F68-8BE5-FBD317E20B1A}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5BFEBEA-75B6-4F68-8BE5-FBD317E20B1A}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -4377,7 +4323,7 @@
             <xdr14:cNvPr id="27" name="Ink 26">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29756C78-CAA3-43AB-B04A-76A9AA571BA1}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29756C78-CAA3-43AB-B04A-76A9AA571BA1}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -4437,7 +4383,7 @@
             <xdr14:cNvPr id="28" name="Ink 27">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D329B567-239A-4863-BC4B-CCB606644555}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D329B567-239A-4863-BC4B-CCB606644555}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -4497,7 +4443,7 @@
             <xdr14:cNvPr id="29" name="Ink 28">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D09D4C3-AB53-430C-A99E-829C9A8ED75F}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D09D4C3-AB53-430C-A99E-829C9A8ED75F}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -4557,7 +4503,7 @@
             <xdr14:cNvPr id="30" name="Ink 29">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7DCCC6D3-D02F-43B1-B98C-2C3FC1CCF1A7}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DCCC6D3-D02F-43B1-B98C-2C3FC1CCF1A7}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -4617,7 +4563,7 @@
             <xdr14:cNvPr id="31" name="Ink 30">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB504588-E83E-48DE-96E5-D49A9AD5D3D4}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB504588-E83E-48DE-96E5-D49A9AD5D3D4}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -4677,7 +4623,7 @@
             <xdr14:cNvPr id="32" name="Ink 31">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6F3449C-1B6A-4DB2-A921-46A86D7B91E2}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6F3449C-1B6A-4DB2-A921-46A86D7B91E2}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -4737,7 +4683,7 @@
             <xdr14:cNvPr id="33" name="Ink 32">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55F4AF9A-C7EE-4FA6-9887-43C43D4795D0}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F4AF9A-C7EE-4FA6-9887-43C43D4795D0}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -4802,7 +4748,7 @@
             <xdr14:cNvPr id="34" name="Ink 33">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF481A5B-E6E3-9664-FB0E-A8FC90F3906E}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF481A5B-E6E3-9664-FB0E-A8FC90F3906E}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -4867,7 +4813,7 @@
             <xdr14:cNvPr id="35" name="Ink 34">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C311E87F-E9F7-FE13-6485-18BE3BCE2226}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C311E87F-E9F7-FE13-6485-18BE3BCE2226}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -4932,7 +4878,7 @@
             <xdr14:cNvPr id="36" name="Ink 35">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D295DE8-3DE1-1B52-302D-CA1FB4E85F06}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D295DE8-3DE1-1B52-302D-CA1FB4E85F06}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -4992,7 +4938,7 @@
             <xdr14:cNvPr id="37" name="Ink 36">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79ADFEDC-5C2B-4DD6-ADEC-7F2071E40859}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79ADFEDC-5C2B-4DD6-ADEC-7F2071E40859}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -5052,7 +4998,7 @@
             <xdr14:cNvPr id="38" name="Ink 37">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3DD4835C-F131-4CB4-B519-C95A2FB378A7}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DD4835C-F131-4CB4-B519-C95A2FB378A7}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -5112,7 +5058,7 @@
             <xdr14:cNvPr id="39" name="Ink 38">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D3C032E6-B5E1-44E4-833D-153352F7D9E8}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3C032E6-B5E1-44E4-833D-153352F7D9E8}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -5172,7 +5118,7 @@
             <xdr14:cNvPr id="40" name="Ink 39">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E068EB75-3AA7-4689-ABD2-788A634F0756}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E068EB75-3AA7-4689-ABD2-788A634F0756}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -5232,7 +5178,7 @@
             <xdr14:cNvPr id="41" name="Ink 40">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB4CAA73-C9CB-490A-B7E9-C9DA6C241146}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB4CAA73-C9CB-490A-B7E9-C9DA6C241146}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -5292,7 +5238,7 @@
             <xdr14:cNvPr id="42" name="Ink 41">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EEB713C2-0CFA-4DF2-B890-95081DB6328E}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEB713C2-0CFA-4DF2-B890-95081DB6328E}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -5352,7 +5298,7 @@
             <xdr14:cNvPr id="43" name="Ink 42">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB9F2773-86A1-4D86-8F19-A50A7278BEE7}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB9F2773-86A1-4D86-8F19-A50A7278BEE7}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -5412,7 +5358,7 @@
             <xdr14:cNvPr id="44" name="Ink 43">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4424EF28-6F40-4EB1-A855-165BDC795A26}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4424EF28-6F40-4EB1-A855-165BDC795A26}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -5472,7 +5418,7 @@
             <xdr14:cNvPr id="45" name="Ink 44">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10DD10D0-E69E-4173-8FA0-68E6BC3C3165}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10DD10D0-E69E-4173-8FA0-68E6BC3C3165}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -5532,7 +5478,7 @@
             <xdr14:cNvPr id="46" name="Ink 45">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{144BBC38-7CB6-49C6-B569-CEAFE6E5A351}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{144BBC38-7CB6-49C6-B569-CEAFE6E5A351}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -5592,7 +5538,7 @@
             <xdr14:cNvPr id="47" name="Ink 46">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0733FF7-1EF0-4B4A-849B-2EC7DA51679E}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0733FF7-1EF0-4B4A-849B-2EC7DA51679E}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -5652,7 +5598,7 @@
             <xdr14:cNvPr id="48" name="Ink 47">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0AC3FE80-BBFD-451C-9377-B494F2A71FCD}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC3FE80-BBFD-451C-9377-B494F2A71FCD}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -5712,7 +5658,7 @@
             <xdr14:cNvPr id="49" name="Ink 48">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B86C4F4C-175F-462C-9162-DFBA557F1DEA}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B86C4F4C-175F-462C-9162-DFBA557F1DEA}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -5772,7 +5718,7 @@
             <xdr14:cNvPr id="50" name="Ink 49">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BFF70D3C-BF45-462B-9F1F-0FAF37FF79E2}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFF70D3C-BF45-462B-9F1F-0FAF37FF79E2}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -5832,7 +5778,7 @@
             <xdr14:cNvPr id="51" name="Ink 50">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0395C96-BE67-4F30-AF87-FC15FD35B3CD}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0395C96-BE67-4F30-AF87-FC15FD35B3CD}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -5892,7 +5838,7 @@
             <xdr14:cNvPr id="52" name="Ink 51">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6AEB49C7-BF63-4761-9477-8E813BB61DB6}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AEB49C7-BF63-4761-9477-8E813BB61DB6}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -5952,7 +5898,7 @@
             <xdr14:cNvPr id="53" name="Ink 52">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38026366-4EDA-4AD5-AD23-4AC5D91DB956}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38026366-4EDA-4AD5-AD23-4AC5D91DB956}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -6012,7 +5958,7 @@
             <xdr14:cNvPr id="54" name="Ink 53">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B452D58D-FB24-4B5A-B9BD-9955032012FB}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B452D58D-FB24-4B5A-B9BD-9955032012FB}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -6072,7 +6018,7 @@
             <xdr14:cNvPr id="55" name="Ink 54">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A3E942B-5F5E-4697-9517-59AECDD6B56A}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A3E942B-5F5E-4697-9517-59AECDD6B56A}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -6132,7 +6078,7 @@
             <xdr14:cNvPr id="56" name="Ink 55">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3735DD8-0F7D-48A8-8C90-42224BB047AB}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3735DD8-0F7D-48A8-8C90-42224BB047AB}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -6192,7 +6138,7 @@
             <xdr14:cNvPr id="57" name="Ink 56">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C7432AB5-F622-4FCD-A51D-C8EADAD89559}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7432AB5-F622-4FCD-A51D-C8EADAD89559}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -6252,7 +6198,7 @@
             <xdr14:cNvPr id="58" name="Ink 57">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B4F18A2D-2D4B-4ADF-812A-C9EF485EC453}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4F18A2D-2D4B-4ADF-812A-C9EF485EC453}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -6312,7 +6258,7 @@
             <xdr14:cNvPr id="59" name="Ink 58">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7DA9DE1B-D09A-48F4-B5D1-DA7D80A6341E}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DA9DE1B-D09A-48F4-B5D1-DA7D80A6341E}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -6372,7 +6318,7 @@
             <xdr14:cNvPr id="60" name="Ink 59">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E680498-A8C7-4777-9F2C-B7F4A3CA5201}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E680498-A8C7-4777-9F2C-B7F4A3CA5201}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -6435,7 +6381,7 @@
         <xdr:cNvPr id="6" name="Shape 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6536,7 +6482,7 @@
         <xdr:cNvPr id="7" name="Shape 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6667,7 +6613,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE4F412C-9E68-4F4C-A09D-9C9A5CE092FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE4F412C-9E68-4F4C-A09D-9C9A5CE092FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6758,7 +6704,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A9E74F80-6181-47F6-B76E-6F24747404F8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9E74F80-6181-47F6-B76E-6F24747404F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9629,12 +9575,12 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{586EE853-6E53-4973-9818-E4AB447301FE}">
+    <customSheetView guid="{06BAD8CE-1DBC-44C9-B316-806B0B5B5BBC}">
       <selection activeCell="G22" sqref="G22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
-    <customSheetView guid="{06BAD8CE-1DBC-44C9-B316-806B0B5B5BBC}">
+    <customSheetView guid="{586EE853-6E53-4973-9818-E4AB447301FE}">
       <selection activeCell="G22" sqref="G22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait"/>
@@ -9651,7 +9597,7 @@
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:K178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+    <sheetView topLeftCell="A182" workbookViewId="0">
       <selection activeCell="E199" sqref="E199"/>
     </sheetView>
   </sheetViews>
@@ -9664,12 +9610,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21">
-      <c r="C1" s="121" t="s">
+      <c r="C1" s="122" t="s">
         <v>192</v>
       </c>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="62">
@@ -10665,7 +10611,7 @@
       </c>
       <c r="C124" s="73">
         <f ca="1">NOW()</f>
-        <v>45986.366977199075</v>
+        <v>45986.444034375003</v>
       </c>
     </row>
     <row r="125" spans="2:5">
@@ -11030,10 +10976,10 @@
       </c>
     </row>
     <row r="171" spans="2:11">
-      <c r="G171" s="122" t="s">
+      <c r="G171" s="123" t="s">
         <v>310</v>
       </c>
-      <c r="H171" s="122"/>
+      <c r="H171" s="123"/>
       <c r="I171" t="s">
         <v>69</v>
       </c>
@@ -11358,11 +11304,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{586EE853-6E53-4973-9818-E4AB447301FE}">
+    <customSheetView guid="{06BAD8CE-1DBC-44C9-B316-806B0B5B5BBC}">
       <selection activeCell="F7" sqref="F7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{06BAD8CE-1DBC-44C9-B316-806B0B5B5BBC}">
+    <customSheetView guid="{586EE853-6E53-4973-9818-E4AB447301FE}">
       <selection activeCell="F7" sqref="F7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -11377,8 +11323,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:M1000"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="B46" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -11427,9 +11373,18 @@
       <c r="B3" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="C3" s="7" t="str">
+        <f>UPPER(B3)</f>
+        <v>NIKE SHOES</v>
+      </c>
+      <c r="D3" s="7" t="str">
+        <f>LOWER(B3)</f>
+        <v>nike shoes</v>
+      </c>
+      <c r="E3" s="7" t="str">
+        <f>PROPER(B3)</f>
+        <v>Nike Shoes</v>
+      </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -11439,9 +11394,18 @@
       <c r="B4" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="C4" s="7" t="str">
+        <f t="shared" ref="C4:C10" si="0">UPPER(B4)</f>
+        <v>APPLE IPHONE</v>
+      </c>
+      <c r="D4" s="7" t="str">
+        <f t="shared" ref="D4:D10" si="1">LOWER(B4)</f>
+        <v>apple iphone</v>
+      </c>
+      <c r="E4" s="7" t="str">
+        <f t="shared" ref="E4:E10" si="2">PROPER(B4)</f>
+        <v>Apple Iphone</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -11451,9 +11415,18 @@
       <c r="B5" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="C5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>BOAT AIRPODS</v>
+      </c>
+      <c r="D5" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>boat airpods</v>
+      </c>
+      <c r="E5" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Boat Airpods</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -11463,9 +11436,18 @@
       <c r="B6" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="C6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>HP LAPTOP</v>
+      </c>
+      <c r="D6" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>hp laptop</v>
+      </c>
+      <c r="E6" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Hp Laptop</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -11475,9 +11457,18 @@
       <c r="B7" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="C7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMSUNG MOBILE</v>
+      </c>
+      <c r="D7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>samsung mobile</v>
+      </c>
+      <c r="E7" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Samsung Mobile</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -11487,9 +11478,18 @@
       <c r="B8" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="C8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>SONY CAMERA</v>
+      </c>
+      <c r="D8" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>sony camera</v>
+      </c>
+      <c r="E8" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Sony Camera</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -11499,9 +11499,18 @@
       <c r="B9" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="C9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>PPUMA TSHIRT</v>
+      </c>
+      <c r="D9" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>ppuma tshirt</v>
+      </c>
+      <c r="E9" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Ppuma Tshirt</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -11511,9 +11520,18 @@
       <c r="B10" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="C10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>DELL MONITO</v>
+      </c>
+      <c r="D10" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>dell monito</v>
+      </c>
+      <c r="E10" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Dell Monito</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -11549,90 +11567,283 @@
       <c r="B13" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="C13" s="7" t="str">
+        <f>TRIM(B13)</f>
+        <v>Nike Shoes</v>
+      </c>
+      <c r="D13" s="7">
+        <f>IFERROR(SEARCH("e",C13),"")</f>
+        <v>4</v>
+      </c>
+      <c r="E13" s="7">
+        <f>IFERROR(FIND("e",C13),"")</f>
+        <v>4</v>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f>SUBSTITUTE(B13,"Shoes","Socks")</f>
+        <v xml:space="preserve">Nike Socks    </v>
+      </c>
+      <c r="G13" s="7" t="str">
+        <f>REPLACE(C13,1,4,"Deepraj")</f>
+        <v>Deepraj Shoes</v>
+      </c>
+      <c r="H13">
+        <f>LEN(B13)</f>
+        <v>14</v>
+      </c>
+      <c r="I13">
+        <f>LEN(C13)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="2:9" ht="14.5">
       <c r="B14" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="C14" s="7" t="str">
+        <f t="shared" ref="C14:C21" si="3">TRIM(B14)</f>
+        <v>Apple iPhone</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" ref="D14:D20" si="4">IFERROR(SEARCH("e",C14),"")</f>
+        <v>5</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" ref="E14:E20" si="5">IFERROR(FIND("e",C14),"")</f>
+        <v>5</v>
+      </c>
+      <c r="F14" s="7" t="str">
+        <f t="shared" ref="F14:F21" si="6">SUBSTITUTE(B14,"Shoes","Socks")</f>
+        <v xml:space="preserve">    Apple iPhone</v>
+      </c>
+      <c r="G14" s="7" t="str">
+        <f t="shared" ref="G14:G20" si="7">REPLACE(C14,1,4,"Deepraj")</f>
+        <v>Deepraje iPhone</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:H20" si="8">LEN(B14)</f>
+        <v>16</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ref="I14:I20" si="9">LEN(C14)</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="2:9" ht="14.5">
       <c r="B15" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="C15" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>Boat Airpods</v>
+      </c>
+      <c r="D15" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E15" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F15" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">     Boat Airpods     </v>
+      </c>
+      <c r="G15" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>Deepraj Airpods</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="2:9" ht="29">
       <c r="B16" s="86" t="s">
         <v>323</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="C16" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">
+HP Laptop</v>
+      </c>
+      <c r="D16" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E16" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F16" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">
+HP Laptop</v>
+      </c>
+      <c r="G16" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>DeeprajLaptop</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="14.5">
       <c r="B17" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="C17" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>Samsung Mobile</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="F17" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Samsung Mobile     </v>
+      </c>
+      <c r="G17" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>Deeprajung Mobile</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="18" spans="2:13" ht="14.5">
       <c r="B18" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="C18" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>Sony Camera</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="F18" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">       Sony Camera</v>
+      </c>
+      <c r="G18" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>Deepraj Camera</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="19" spans="2:13" ht="14.5">
       <c r="B19" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="C19" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>Puma Tshirt</v>
+      </c>
+      <c r="D19" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E19" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F19" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">      Puma Tshirt     </v>
+      </c>
+      <c r="G19" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>Deepraj Tshirt</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="20" spans="2:13" ht="14.5">
       <c r="B20" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="C20" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>Dell Monito</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F20" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>Dell Monito</v>
+      </c>
+      <c r="G20" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>Deepraj Monito</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
       <c r="M20">
         <f>FIND("D","Deepraj")</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="15.75" customHeight="1">
-      <c r="C21" s="7"/>
+      <c r="C21" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
+      <c r="F21" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="I21" t="s">
         <v>311</v>
       </c>
@@ -11775,11 +11986,11 @@
         <v>26</v>
       </c>
       <c r="C41" s="7" t="str">
-        <f t="shared" ref="C41:C47" si="0">LEFT(B41, FIND("-", B41) - 1)</f>
+        <f t="shared" ref="C41:C47" si="10">LEFT(B41, FIND("-", B41) - 1)</f>
         <v>Salman</v>
       </c>
       <c r="D41" s="7" t="str">
-        <f t="shared" ref="D41:D47" si="1">RIGHT(B41, LEN(B41) - FIND("-", B41))</f>
+        <f t="shared" ref="D41:D47" si="11">RIGHT(B41, LEN(B41) - FIND("-", B41))</f>
         <v>Khan</v>
       </c>
       <c r="E41" s="60"/>
@@ -11790,11 +12001,11 @@
         <v>27</v>
       </c>
       <c r="C42" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>Ananya</v>
       </c>
       <c r="D42" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>Pandey</v>
       </c>
       <c r="E42" s="60"/>
@@ -11805,11 +12016,11 @@
         <v>28</v>
       </c>
       <c r="C43" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>Happy</v>
       </c>
       <c r="D43" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>Singh</v>
       </c>
       <c r="E43" s="60"/>
@@ -11820,11 +12031,11 @@
         <v>29</v>
       </c>
       <c r="C44" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>Akshay</v>
       </c>
       <c r="D44" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>Kumar</v>
       </c>
       <c r="E44" s="60"/>
@@ -11835,11 +12046,11 @@
         <v>30</v>
       </c>
       <c r="C45" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>Amir</v>
       </c>
       <c r="D45" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>Khan</v>
       </c>
       <c r="E45" s="60"/>
@@ -11850,11 +12061,11 @@
         <v>31</v>
       </c>
       <c r="C46" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>Aishwarya</v>
       </c>
       <c r="D46" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>Rai</v>
       </c>
       <c r="E46" s="60"/>
@@ -11865,11 +12076,11 @@
         <v>32</v>
       </c>
       <c r="C47" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>Madhuri</v>
       </c>
       <c r="D47" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>Dixit</v>
       </c>
       <c r="E47" s="60"/>
@@ -12955,12 +13166,12 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{586EE853-6E53-4973-9818-E4AB447301FE}" scale="116" topLeftCell="A24">
+    <customSheetView guid="{06BAD8CE-1DBC-44C9-B316-806B0B5B5BBC}" scale="116" topLeftCell="A24">
       <selection activeCell="E33" sqref="E33"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
       <pageSetup orientation="landscape"/>
     </customSheetView>
-    <customSheetView guid="{06BAD8CE-1DBC-44C9-B316-806B0B5B5BBC}" scale="116" topLeftCell="A24">
+    <customSheetView guid="{586EE853-6E53-4973-9818-E4AB447301FE}" scale="116" topLeftCell="A24">
       <selection activeCell="E33" sqref="E33"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
       <pageSetup orientation="landscape"/>
@@ -12976,8 +13187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -13414,7 +13625,10 @@
       <c r="A22" s="99" t="s">
         <v>199</v>
       </c>
-      <c r="D22" s="91"/>
+      <c r="D22" s="91">
+        <f>SUM(D2:D21)</f>
+        <v>6573.7199999999984</v>
+      </c>
       <c r="E22" s="92"/>
       <c r="F22" s="93"/>
     </row>
@@ -13422,7 +13636,10 @@
       <c r="A23" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="94"/>
+      <c r="D23" s="94">
+        <f>AVERAGE(D2:D21)</f>
+        <v>328.68599999999992</v>
+      </c>
       <c r="E23" s="90"/>
       <c r="F23" s="95"/>
     </row>
@@ -13430,7 +13647,10 @@
       <c r="A24" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="94"/>
+      <c r="D24" s="94">
+        <f>PRODUCT(D2:D21)</f>
+        <v>1.0319354662397272E+38</v>
+      </c>
       <c r="E24" s="90"/>
       <c r="F24" s="95"/>
     </row>
@@ -13438,7 +13658,10 @@
       <c r="A25" s="100" t="s">
         <v>203</v>
       </c>
-      <c r="D25" s="94"/>
+      <c r="D25" s="94">
+        <f>MIN(D2:D21)</f>
+        <v>2.99</v>
+      </c>
       <c r="E25" s="90"/>
       <c r="F25" s="95"/>
     </row>
@@ -13446,7 +13669,10 @@
       <c r="A26" s="100" t="s">
         <v>205</v>
       </c>
-      <c r="D26" s="94"/>
+      <c r="D26" s="94">
+        <f>MAX(D2:D21)</f>
+        <v>1700</v>
+      </c>
       <c r="E26" s="90"/>
       <c r="F26" s="95"/>
     </row>
@@ -13454,7 +13680,10 @@
       <c r="A27" s="101" t="s">
         <v>207</v>
       </c>
-      <c r="D27" s="96"/>
+      <c r="D27" s="96">
+        <f>COUNT(D2:D21)</f>
+        <v>20</v>
+      </c>
       <c r="E27" s="97"/>
       <c r="F27" s="98"/>
     </row>
@@ -13469,8 +13698,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="106" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="106" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -13532,7 +13761,10 @@
       <c r="E5" s="51">
         <v>25</v>
       </c>
-      <c r="F5" s="51"/>
+      <c r="F5" s="51" t="b">
+        <f>D5=E5</f>
+        <v>1</v>
+      </c>
       <c r="G5" s="51" t="s">
         <v>316</v>
       </c>
@@ -13551,7 +13783,10 @@
       <c r="E6" s="51">
         <v>45</v>
       </c>
-      <c r="F6" s="51"/>
+      <c r="F6" s="51" t="b">
+        <f>D6&lt;&gt;E6</f>
+        <v>1</v>
+      </c>
       <c r="G6" s="51" t="s">
         <v>117</v>
       </c>
@@ -13570,7 +13805,10 @@
       <c r="E7" s="51">
         <v>45</v>
       </c>
-      <c r="F7" s="51"/>
+      <c r="F7" s="51" t="b">
+        <f>D7&gt;E7</f>
+        <v>0</v>
+      </c>
       <c r="G7" s="51" t="s">
         <v>119</v>
       </c>
@@ -13589,7 +13827,10 @@
       <c r="E8" s="51">
         <v>45</v>
       </c>
-      <c r="F8" s="51"/>
+      <c r="F8" s="51" t="b">
+        <f>D8&gt;=E8</f>
+        <v>0</v>
+      </c>
       <c r="G8" s="51" t="s">
         <v>121</v>
       </c>
@@ -13608,7 +13849,10 @@
       <c r="E9" s="51">
         <v>45</v>
       </c>
-      <c r="F9" s="51"/>
+      <c r="F9" s="51" t="b">
+        <f>D9&lt;E9</f>
+        <v>1</v>
+      </c>
       <c r="G9" s="51" t="s">
         <v>123</v>
       </c>
@@ -13627,7 +13871,10 @@
       <c r="E10" s="51">
         <v>45</v>
       </c>
-      <c r="F10" s="51"/>
+      <c r="F10" s="51" t="b">
+        <f>D10&lt;=E10</f>
+        <v>1</v>
+      </c>
       <c r="G10" s="51" t="s">
         <v>125</v>
       </c>
@@ -14787,12 +15034,12 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{586EE853-6E53-4973-9818-E4AB447301FE}" scale="137" topLeftCell="B5">
+    <customSheetView guid="{06BAD8CE-1DBC-44C9-B316-806B0B5B5BBC}" scale="137" topLeftCell="B5">
       <selection activeCell="F21" sqref="F21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
       <pageSetup orientation="landscape"/>
     </customSheetView>
-    <customSheetView guid="{06BAD8CE-1DBC-44C9-B316-806B0B5B5BBC}" scale="137" topLeftCell="B5">
+    <customSheetView guid="{586EE853-6E53-4973-9818-E4AB447301FE}" scale="137" topLeftCell="B5">
       <selection activeCell="F21" sqref="F21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
       <pageSetup orientation="landscape"/>
@@ -14809,7 +15056,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J2" sqref="J2:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -14876,11 +15123,26 @@
       <c r="E2" s="109">
         <v>2</v>
       </c>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
+      <c r="F2" s="115">
+        <f>D2*E2</f>
+        <v>3000</v>
+      </c>
+      <c r="G2" s="115" t="str">
+        <f>IF(F2&gt;5000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="H2" s="115" t="str">
+        <f>IF(AND(C2="Premium",F2&gt;5000),"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="I2" s="115" t="str">
+        <f>IF(OR(C2="Premium",F2&gt;5000),"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="J2" s="115" t="str">
+        <f>IF(NOT(C2="Premium"),"Yes","No")</f>
+        <v>Yes</v>
+      </c>
       <c r="K2" s="103"/>
       <c r="L2" s="103"/>
       <c r="M2" s="103"/>
@@ -14902,11 +15164,26 @@
       <c r="E3" s="106">
         <v>1</v>
       </c>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
+      <c r="F3" s="115">
+        <f t="shared" ref="F3:F11" si="0">D3*E3</f>
+        <v>75000</v>
+      </c>
+      <c r="G3" s="115" t="str">
+        <f t="shared" ref="G3:G11" si="1">IF(F3&gt;5000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="H3" s="115" t="str">
+        <f t="shared" ref="H3:H11" si="2">IF(AND(C3="Premium",F3&gt;5000),"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="I3" s="115" t="str">
+        <f t="shared" ref="I3:I11" si="3">IF(OR(C3="Premium",F3&gt;5000),"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="J3" s="115" t="str">
+        <f t="shared" ref="J3:J11" si="4">IF(NOT(C3="Premium"),"Yes","No")</f>
+        <v>No</v>
+      </c>
       <c r="K3" s="103"/>
       <c r="L3" s="103"/>
       <c r="M3" s="103"/>
@@ -14928,11 +15205,26 @@
       <c r="E4" s="106">
         <v>5</v>
       </c>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="123"/>
+      <c r="F4" s="115">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="G4" s="115" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="H4" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="I4" s="115" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="J4" s="115" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
       <c r="K4" s="103"/>
       <c r="L4" s="103"/>
       <c r="M4" s="103"/>
@@ -14954,11 +15246,26 @@
       <c r="E5" s="106">
         <v>3</v>
       </c>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="123"/>
+      <c r="F5" s="115">
+        <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+      <c r="G5" s="115" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="H5" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="I5" s="115" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="J5" s="115" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
       <c r="K5" s="103"/>
       <c r="L5" s="103"/>
       <c r="M5" s="103"/>
@@ -14980,11 +15287,26 @@
       <c r="E6" s="106">
         <v>2</v>
       </c>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
+      <c r="F6" s="115">
+        <f t="shared" si="0"/>
+        <v>32000</v>
+      </c>
+      <c r="G6" s="115" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="H6" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="I6" s="115" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="J6" s="115" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
       <c r="K6" s="103"/>
       <c r="L6" s="103"/>
       <c r="M6" s="103"/>
@@ -15006,11 +15328,26 @@
       <c r="E7" s="106">
         <v>3</v>
       </c>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
+      <c r="F7" s="115">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+      <c r="G7" s="115" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="H7" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="I7" s="115" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="J7" s="115" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
       <c r="K7" s="103"/>
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
@@ -15032,11 +15369,26 @@
       <c r="E8" s="106">
         <v>6</v>
       </c>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
+      <c r="F8" s="115">
+        <f t="shared" si="0"/>
+        <v>4800</v>
+      </c>
+      <c r="G8" s="115" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="H8" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="I8" s="115" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="J8" s="115" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
       <c r="K8" s="103"/>
       <c r="L8" s="103"/>
       <c r="M8" s="103"/>
@@ -15058,11 +15410,26 @@
       <c r="E9" s="106">
         <v>2</v>
       </c>
-      <c r="F9" s="123"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="123"/>
+      <c r="F9" s="115">
+        <f t="shared" si="0"/>
+        <v>26000</v>
+      </c>
+      <c r="G9" s="115" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="H9" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="I9" s="115" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="J9" s="115" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
       <c r="K9" s="103"/>
       <c r="L9" s="103"/>
       <c r="M9" s="103"/>
@@ -15084,11 +15451,26 @@
       <c r="E10" s="106">
         <v>3</v>
       </c>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="124"/>
+      <c r="F10" s="115">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="G10" s="115" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="H10" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="I10" s="115" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="J10" s="115" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
       <c r="K10" s="103"/>
       <c r="L10" s="103"/>
       <c r="M10" s="103"/>
@@ -15110,11 +15492,26 @@
       <c r="E11" s="112">
         <v>5</v>
       </c>
-      <c r="F11" s="126"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="126"/>
+      <c r="F11" s="115">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="G11" s="115" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="H11" s="115" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="I11" s="115" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="J11" s="115" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15127,8 +15524,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:N969"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -15161,17 +15558,17 @@
       <c r="D1" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="115" t="s">
+      <c r="G1" s="119" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="116"/>
+      <c r="H1" s="121"/>
       <c r="I1" s="16"/>
-      <c r="J1" s="115" t="s">
+      <c r="J1" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="116"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="121"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1">
       <c r="A2" s="17" t="s">
@@ -15186,10 +15583,10 @@
       <c r="D2" s="18">
         <v>231</v>
       </c>
-      <c r="G2" s="118" t="s">
+      <c r="G2" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="118" t="s">
+      <c r="H2" s="116" t="s">
         <v>56</v>
       </c>
       <c r="I2" s="20"/>
@@ -15215,8 +15612,8 @@
       <c r="D3" s="18">
         <v>7.4749999999999996</v>
       </c>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
       <c r="I3" s="25"/>
       <c r="J3" s="26"/>
       <c r="K3" s="17">
@@ -15337,17 +15734,17 @@
         <v>128.69669999999999</v>
       </c>
       <c r="F8" s="61"/>
-      <c r="G8" s="115" t="s">
+      <c r="G8" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="116"/>
+      <c r="H8" s="121"/>
       <c r="I8" s="35"/>
-      <c r="J8" s="115" t="s">
+      <c r="J8" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="K8" s="117"/>
-      <c r="L8" s="117"/>
-      <c r="M8" s="116"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="121"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1">
       <c r="A9" s="17" t="s">
@@ -15363,10 +15760,10 @@
         <v>5.9749999999999996</v>
       </c>
       <c r="E9" s="14"/>
-      <c r="G9" s="118" t="s">
+      <c r="G9" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="118" t="s">
+      <c r="H9" s="116" t="s">
         <v>64</v>
       </c>
       <c r="I9" s="36"/>
@@ -15392,8 +15789,8 @@
       <c r="D10" s="18">
         <v>49.994999999999997</v>
       </c>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
       <c r="I10" s="37"/>
       <c r="J10" s="26"/>
       <c r="K10" s="17">
@@ -15509,17 +15906,17 @@
       <c r="D15" s="18">
         <v>97.493499999999997</v>
       </c>
-      <c r="G15" s="115" t="s">
+      <c r="G15" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="116"/>
+      <c r="H15" s="121"/>
       <c r="I15" s="40"/>
-      <c r="J15" s="115" t="s">
+      <c r="J15" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="117"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="116"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="120"/>
+      <c r="M15" s="121"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1">
       <c r="A16" s="28" t="s">
@@ -15534,10 +15931,10 @@
       <c r="D16" s="18">
         <v>99</v>
       </c>
-      <c r="G16" s="118" t="s">
+      <c r="G16" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="120" t="s">
+      <c r="H16" s="118" t="s">
         <v>57</v>
       </c>
       <c r="I16" s="41"/>
@@ -15563,8 +15960,8 @@
       <c r="D17" s="18">
         <v>97.493499999999997</v>
       </c>
-      <c r="G17" s="119"/>
-      <c r="H17" s="119"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
       <c r="I17" s="37"/>
       <c r="J17" s="26"/>
       <c r="K17" s="17">
@@ -16579,30 +16976,30 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{586EE853-6E53-4973-9818-E4AB447301FE}" scale="85">
+    <customSheetView guid="{06BAD8CE-1DBC-44C9-B316-806B0B5B5BBC}" scale="85">
       <selection activeCell="L13" sqref="L13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
       <pageSetup orientation="landscape"/>
     </customSheetView>
-    <customSheetView guid="{06BAD8CE-1DBC-44C9-B316-806B0B5B5BBC}" scale="85">
+    <customSheetView guid="{586EE853-6E53-4973-9818-E4AB447301FE}" scale="85">
       <selection activeCell="L13" sqref="L13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
       <pageSetup orientation="landscape"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:M8"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="J15:M15"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:M8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -17729,12 +18126,12 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{586EE853-6E53-4973-9818-E4AB447301FE}">
+    <customSheetView guid="{06BAD8CE-1DBC-44C9-B316-806B0B5B5BBC}">
       <selection activeCell="K6" sqref="K6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
       <pageSetup orientation="landscape"/>
     </customSheetView>
-    <customSheetView guid="{06BAD8CE-1DBC-44C9-B316-806B0B5B5BBC}">
+    <customSheetView guid="{586EE853-6E53-4973-9818-E4AB447301FE}">
       <selection activeCell="K6" sqref="K6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
       <pageSetup orientation="landscape"/>
@@ -18026,11 +18423,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{586EE853-6E53-4973-9818-E4AB447301FE}" topLeftCell="A20">
+    <customSheetView guid="{06BAD8CE-1DBC-44C9-B316-806B0B5B5BBC}" topLeftCell="A20">
       <selection activeCell="B34" sqref="B34"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{06BAD8CE-1DBC-44C9-B316-806B0B5B5BBC}" topLeftCell="A20">
+    <customSheetView guid="{586EE853-6E53-4973-9818-E4AB447301FE}" topLeftCell="A20">
       <selection activeCell="B34" sqref="B34"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
